--- a/src/main/resources/Endpoints_documentation.xlsx
+++ b/src/main/resources/Endpoints_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>/user/new</t>
   </si>
@@ -97,13 +97,130 @@
   </si>
   <si>
     <t>EditUser</t>
+  </si>
+  <si>
+    <t>RemoveUser</t>
+  </si>
+  <si>
+    <t>/user/remove</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>/model/new</t>
+  </si>
+  <si>
+    <t>/model/image/save</t>
+  </si>
+  <si>
+    <t>NewModel</t>
+  </si>
+  <si>
+    <t>EditModel</t>
+  </si>
+  <si>
+    <t>/model/edit</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ModelBase</t>
+  </si>
+  <si>
+    <t>NewPhotoOfModel</t>
+  </si>
+  <si>
+    <t>FindModelById</t>
+  </si>
+  <si>
+    <t>/model/findUsersModels</t>
+  </si>
+  <si>
+    <t>FindModelsByUser</t>
+  </si>
+  <si>
+    <t>List&lt;Model&gt;</t>
+  </si>
+  <si>
+    <t>/model/findById</t>
+  </si>
+  <si>
+    <t>/model/findNewestModels</t>
+  </si>
+  <si>
+    <t>FindNewestModels</t>
+  </si>
+  <si>
+    <t>/model/findMostLikedModels</t>
+  </si>
+  <si>
+    <t>FindMostLikedModels</t>
+  </si>
+  <si>
+    <t>/model/findModelsByIds</t>
+  </si>
+  <si>
+    <t>FindModelsByIds</t>
+  </si>
+  <si>
+    <t>/model/remove</t>
+  </si>
+  <si>
+    <t>RemoveModel</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>get model -&gt; object structure</t>
+  </si>
+  <si>
+    <t>/item/sendOBJFile</t>
+  </si>
+  <si>
+    <t>/item/</t>
+  </si>
+  <si>
+    <t>/user/resetPassword</t>
+  </si>
+  <si>
+    <t>ResetUserPassword</t>
+  </si>
+  <si>
+    <t>USER-FACEBOOK</t>
+  </si>
+  <si>
+    <t>USER-GOOGLE+</t>
+  </si>
+  <si>
+    <t>/user/special/signUpViaFacebook</t>
+  </si>
+  <si>
+    <t>/user/special/signUpViaGooglePlus</t>
+  </si>
+  <si>
+    <t>SignUpViaFacebook</t>
+  </si>
+  <si>
+    <t>SignUpViaGooglePlus</t>
+  </si>
+  <si>
+    <t>--------------------------------</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>state, page not found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +253,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,8 +309,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -204,17 +387,265 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -541,22 +972,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L30"/>
+  <dimension ref="A4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -587,8 +1019,9 @@
       <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -605,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>8</v>
@@ -616,8 +1049,9 @@
       <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -642,8 +1076,9 @@
       <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -668,8 +1103,9 @@
       <c r="L7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -694,8 +1130,9 @@
       <c r="L8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -720,134 +1157,702 @@
       <c r="L9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="9:12">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="9:12">
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="9:12">
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="9:12">
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="9:12">
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="9:12">
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="9:12">
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="9:12">
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="9:12">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="9:12">
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="9:12">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="9:12">
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="9:12">
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="9:12">
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="7"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="7"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="7"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="7"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="7"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="7"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="7"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="7"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="7"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="7"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="7"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="7"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="7"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",K5)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:L11 I18:L54 I13:J14 L13:L14">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="v">
+      <formula>NOT(ISERROR(SEARCH("v",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",I5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/src/main/resources/Endpoints_documentation.xlsx
+++ b/src/main/resources/Endpoints_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="17480" yWindow="0" windowWidth="26680" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>FindModelById</t>
   </si>
   <si>
-    <t>/model/findUsersModels</t>
-  </si>
-  <si>
     <t>FindModelsByUser</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>state, page not found</t>
+  </si>
+  <si>
+    <t>/model/findModelsByUser</t>
   </si>
 </sst>
 </file>
@@ -301,8 +301,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -391,7 +451,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -424,6 +484,36 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -456,141 +546,39 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color auto="1"/>
@@ -620,28 +608,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -974,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1191,10 +1157,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1222,13 +1188,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1249,13 +1215,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1354,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -1408,7 +1374,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1435,13 +1401,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>9</v>
@@ -1462,13 +1428,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>8</v>
@@ -1489,13 +1455,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>8</v>
@@ -1516,13 +1482,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>8</v>
@@ -1548,10 +1514,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>9</v>
@@ -1569,10 +1535,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>9</v>
@@ -1590,10 +1556,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>9</v>
@@ -1795,13 +1761,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
         <v>62</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>63</v>
-      </c>
-      <c r="F54" t="s">
-        <v>64</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>8</v>
@@ -1834,7 +1800,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",K5)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="4">
@@ -1846,10 +1812,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:L11 I18:L54 I13:J14 L13:L14">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="v">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="v">
       <formula>NOT(ISERROR(SEARCH("v",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",I5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/Endpoints_documentation.xlsx
+++ b/src/main/resources/Endpoints_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="0" windowWidth="26680" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>/user/new</t>
   </si>
@@ -171,15 +171,6 @@
     <t>ITEM</t>
   </si>
   <si>
-    <t>get model -&gt; object structure</t>
-  </si>
-  <si>
-    <t>/item/sendOBJFile</t>
-  </si>
-  <si>
-    <t>/item/</t>
-  </si>
-  <si>
     <t>/user/resetPassword</t>
   </si>
   <si>
@@ -214,6 +205,45 @@
   </si>
   <si>
     <t>/model/findModelsByUser</t>
+  </si>
+  <si>
+    <t>/item/{userUUID}/{modelUUID}/{imageOrder}/{imageType}</t>
+  </si>
+  <si>
+    <t>ItemPhotoDownload</t>
+  </si>
+  <si>
+    <t>ItemPhotoUpload</t>
+  </si>
+  <si>
+    <t>/item/model/image/upload</t>
+  </si>
+  <si>
+    <t>/item/model/sendObjFile</t>
+  </si>
+  <si>
+    <t>send obj file with model to users email</t>
+  </si>
+  <si>
+    <t>upload image</t>
+  </si>
+  <si>
+    <t>download image</t>
+  </si>
+  <si>
+    <t>Image file</t>
+  </si>
+  <si>
+    <t>/model/addLike</t>
+  </si>
+  <si>
+    <t>AddLikeForModel</t>
+  </si>
+  <si>
+    <t>RemoveLikeForModel</t>
+  </si>
+  <si>
+    <t>/model/removeLike</t>
   </si>
 </sst>
 </file>
@@ -301,8 +331,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,7 +485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -514,6 +548,8 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,9 +612,187 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -940,14 +1154,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
@@ -1157,10 +1371,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1188,13 +1402,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1215,13 +1429,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1428,7 +1642,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1514,16 +1728,22 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>9</v>
@@ -1535,68 +1755,119 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="9" t="s">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="7"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="7"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13">
@@ -1761,13 +2032,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>8</v>
@@ -1800,7 +2071,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",K5)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="4">
@@ -1811,11 +2082,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:L11 I18:L54 I13:J14 L13:L14">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="v">
+  <conditionalFormatting sqref="I5:L11 I13:J14 L13:L14 I31:L54 I18:L29">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="v">
       <formula>NOT(ISERROR(SEARCH("v",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",I5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/Endpoints_documentation.xlsx
+++ b/src/main/resources/Endpoints_documentation.xlsx
@@ -331,8 +331,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,7 +491,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +556,9 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -614,6 +623,9 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -636,6 +648,16 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -812,16 +834,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1154,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1218,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>8</v>
@@ -1462,17 +1474,57 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
@@ -1480,22 +1532,22 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>9</v>
@@ -1507,10 +1559,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1534,13 +1586,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>9</v>
@@ -1549,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>9</v>
@@ -1561,13 +1613,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>9</v>
@@ -1588,16 +1640,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>8</v>
@@ -1615,16 +1667,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>8</v>
@@ -1642,10 +1694,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1665,30 +1717,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
@@ -1696,16 +1729,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>8</v>
@@ -1719,52 +1752,50 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="7"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="A27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>9</v>
@@ -1781,20 +1812,44 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -1814,60 +1869,9 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13">
@@ -2071,7 +2075,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",K5)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="4">
@@ -2082,11 +2086,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:L11 I13:J14 L13:L14 I31:L54 I18:L29">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="v">
+  <conditionalFormatting sqref="I5:L11 I13:J14 L13:L14 I16:L27 I34:L54 I29:L31">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="v">
       <formula>NOT(ISERROR(SEARCH("v",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
